--- a/Nechronica/ネクロニカ.xlsx
+++ b/Nechronica/ネクロニカ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\OneDrive - 近畿コンピュータ電子専門学校\ドキュメント\HGC2023\Nechronica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="報酬" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -863,6 +862,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,70 +932,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,14 +961,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2927,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -2945,10 +2944,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
@@ -2965,44 +2964,44 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="21"/>
+      <c r="G5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="K5" s="31" t="s">
+      <c r="H5" s="25"/>
+      <c r="K5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="O5" s="17" t="s">
+      <c r="L5" s="25"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="R5" s="13" t="s">
+      <c r="P5" s="29"/>
+      <c r="R5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="U5" s="13" t="s">
+      <c r="S5" s="29"/>
+      <c r="U5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="14"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U7">
@@ -3010,131 +3009,131 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="U8" s="13" t="s">
+      <c r="D8" s="29"/>
+      <c r="U8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="K9" s="13" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="K9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
+      <c r="L9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="L19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="L20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="L22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="M23" t="s">
         <v>60</v>
       </c>
@@ -3146,40 +3145,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
       <c r="O25" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="U8:V9"/>
     <mergeCell ref="B15:H25"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="U8:V9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3223,13 +3222,13 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="32"/>
+      <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="P5" s="36"/>
@@ -3239,19 +3238,19 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P6" s="33"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="32" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="40"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3263,18 +3262,18 @@
     </row>
     <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="12"/>
+      <c r="U18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3310,10 +3309,10 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="33"/>
       <c r="P2" t="s">
         <v>12</v>
       </c>
@@ -3322,26 +3321,26 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="S3" s="31" t="s">
+      <c r="G3" s="25"/>
+      <c r="S3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="32"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="33"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="34"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -3370,11 +3369,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="T8" s="40"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T9" s="1" t="s">
@@ -3382,11 +3381,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="40"/>
-      <c r="U10" s="12"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T11" s="1" t="s">
@@ -3394,11 +3393,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="40"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T13" s="1" t="s">
@@ -3406,11 +3405,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="40"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T15" s="1" t="s">
@@ -3418,23 +3417,25 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="32" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="12"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="22:23" x14ac:dyDescent="0.4">
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="22:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="V18" s="2"/>
-      <c r="W18" s="45"/>
+      <c r="W18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="S3:U4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="S12:U12"/>
@@ -3442,8 +3443,6 @@
     <mergeCell ref="S16:U16"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="S8:U8"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="S3:U4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,9 +3483,9 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="31"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="35"/>
-      <c r="Q2" s="32"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="49"/>
@@ -3494,9 +3493,9 @@
       <c r="E3" s="53"/>
       <c r="F3" s="54"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="33"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="34"/>
+      <c r="Q3" s="27"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3543,9 +3542,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O7" s="11"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="51" t="s">
@@ -3565,9 +3564,9 @@
       <c r="C9" s="54"/>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="40"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P10" s="1" t="s">
@@ -3578,9 +3577,9 @@
       <c r="D11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P12" s="1"/>
@@ -3599,27 +3598,27 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="18:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="R17" s="2"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="E8:F9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3650,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Nechronica/ネクロニカ.xlsx
+++ b/Nechronica/ネクロニカ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HGC2023\Nechronica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="報酬" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -863,6 +862,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,70 +932,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,14 +961,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2927,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2945,10 +2944,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
@@ -2965,44 +2964,44 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="21"/>
+      <c r="G5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="K5" s="31" t="s">
+      <c r="H5" s="25"/>
+      <c r="K5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="O5" s="17" t="s">
+      <c r="L5" s="25"/>
+      <c r="O5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="R5" s="13" t="s">
+      <c r="P5" s="29"/>
+      <c r="R5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="U5" s="13" t="s">
+      <c r="S5" s="29"/>
+      <c r="U5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="14"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U7">
@@ -3010,131 +3009,131 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="U8" s="13" t="s">
+      <c r="D8" s="29"/>
+      <c r="U8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="K9" s="13" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="K9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
+      <c r="L9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="L19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="L20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="L22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="M23" t="s">
         <v>60</v>
       </c>
@@ -3146,40 +3145,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
       <c r="O25" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="U8:V9"/>
     <mergeCell ref="B15:H25"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="U8:V9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3223,13 +3222,13 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="32"/>
+      <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="P5" s="36"/>
@@ -3239,19 +3238,19 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P6" s="33"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="32" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="40"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3263,18 +3262,18 @@
     </row>
     <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="12"/>
+      <c r="U18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3310,10 +3309,10 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="33"/>
       <c r="P2" t="s">
         <v>12</v>
       </c>
@@ -3322,26 +3321,26 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="S3" s="31" t="s">
+      <c r="G3" s="25"/>
+      <c r="S3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="32"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="33"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="34"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -3370,11 +3369,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="T8" s="40"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T9" s="1" t="s">
@@ -3382,11 +3381,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="40"/>
-      <c r="U10" s="12"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T11" s="1" t="s">
@@ -3394,11 +3393,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="40"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T13" s="1" t="s">
@@ -3406,11 +3405,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="40"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T15" s="1" t="s">
@@ -3418,23 +3417,25 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="32" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="12"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="22:23" x14ac:dyDescent="0.4">
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="22:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="V18" s="2"/>
-      <c r="W18" s="45"/>
+      <c r="W18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="S3:U4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="S12:U12"/>
@@ -3442,8 +3443,6 @@
     <mergeCell ref="S16:U16"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="S8:U8"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="S3:U4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,9 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3484,9 +3481,9 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="31"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="35"/>
-      <c r="Q2" s="32"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="49"/>
@@ -3494,9 +3491,9 @@
       <c r="E3" s="53"/>
       <c r="F3" s="54"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="33"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="34"/>
+      <c r="Q3" s="27"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3543,9 +3540,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O7" s="11"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="51" t="s">
@@ -3565,9 +3562,9 @@
       <c r="C9" s="54"/>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="40"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P10" s="1" t="s">
@@ -3578,9 +3575,9 @@
       <c r="D11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P12" s="1"/>
@@ -3599,27 +3596,27 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="18:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="R17" s="2"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="E8:F9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nechronica/ネクロニカ.xlsx
+++ b/Nechronica/ネクロニカ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\OneDrive - 近畿コンピュータ電子専門学校\ドキュメント\HGC2023\Nechronica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\HGC2023\Nechronica\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C145666-C715-44D6-B472-CB1525E6B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +863,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,27 +935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,15 +962,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,6 +1000,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,7 +1039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右矢印 1"/>
+        <xdr:cNvPr id="2" name="右矢印 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1089,7 +1099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右矢印 2"/>
+        <xdr:cNvPr id="3" name="右矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1143,7 +1159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="4" name="右矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1197,7 +1219,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvPr id="5" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1251,7 +1279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvPr id="6" name="右矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1305,7 +1339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="右矢印 6"/>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1359,7 +1399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvPr id="8" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1413,7 +1459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1467,7 +1519,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvPr id="10" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1521,7 +1579,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvPr id="11" name="右矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1575,7 +1639,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvPr id="12" name="右矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1629,7 +1699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvPr id="14" name="右矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1683,7 +1759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="右矢印 14"/>
+        <xdr:cNvPr id="15" name="右矢印 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1737,7 +1819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="右矢印 15"/>
+        <xdr:cNvPr id="16" name="右矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1791,7 +1879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="右矢印 16"/>
+        <xdr:cNvPr id="17" name="右矢印 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1845,7 +1939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="四角形吹き出し 17"/>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1905,7 +2005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="右矢印 18"/>
+        <xdr:cNvPr id="19" name="右矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1959,7 +2065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvPr id="20" name="右矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2013,7 +2125,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvPr id="21" name="右矢印 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2067,7 +2185,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="右矢印 21"/>
+        <xdr:cNvPr id="22" name="右矢印 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2126,7 +2250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2191,7 +2321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2256,7 +2392,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2321,7 +2463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2359,7 +2507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2413,7 +2567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2446,6 +2606,755 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20581DE0-0642-4302-C43C-EE15F2F05717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="2733675"/>
+          <a:ext cx="2362200" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カウント開始時の処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600FEE3E-016D-743A-7777-9E14596895AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2362200" y="3228975"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03CB428-5F9F-7275-4DC1-BD10A06EF735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="3514725"/>
+          <a:ext cx="1828799" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>存在する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のカウントを確認し、現在のカウントと同じ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をリストに追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71465F9C-6352-EB2E-D868-5DB4558F9139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2333625" y="4438650"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140ADFBB-F6EC-F4B8-1300-4E6655B2C2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="4772025"/>
+          <a:ext cx="1714499" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リストに入った</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を重さの小さい順にソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189D9951-934A-58FB-79AF-08168AD1C407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="5829300"/>
+          <a:ext cx="1666875" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>重さが小さい順に行動処理開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD277A87-D780-D4D4-74FA-EC6E987E10C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2343150" y="5467350"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842AF0EA-D3B9-94C0-796E-CADEBFC073B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="6924676"/>
+          <a:ext cx="3286125" cy="800099"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行動処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最初に行動する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が何者か判断</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EC1101-ED74-D290-FEB8-010A897C50E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5781675" y="7658100"/>
+          <a:ext cx="9525" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D16A091-1CC1-8176-4409-E9EE3318E170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3619500" y="7762875"/>
+          <a:ext cx="47625" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="スクロール: 横 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258A41FE-8846-4195-5A06-9079405F54D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="7877175"/>
+          <a:ext cx="561976" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="スクロール: 横 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8ABEF6-CD1D-C73B-F158-C4744EEBBEF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="7772400"/>
+          <a:ext cx="561976" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 14655"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PL</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2472,7 +3381,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2510,7 +3425,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2554,7 +3475,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2604,7 +3531,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvPr id="5" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2923,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,10 +3877,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
@@ -2964,44 +3897,44 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="G5" s="24" t="s">
+      <c r="D5" s="28"/>
+      <c r="G5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="K5" s="24" t="s">
+      <c r="H5" s="32"/>
+      <c r="K5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="32"/>
+      <c r="O5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="R5" s="28" t="s">
+      <c r="P5" s="14"/>
+      <c r="R5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="U5" s="28" t="s">
+      <c r="S5" s="14"/>
+      <c r="U5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="29"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U7">
@@ -3009,131 +3942,131 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="U8" s="28" t="s">
+      <c r="D8" s="14"/>
+      <c r="U8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="29"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="K9" s="28" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="K9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
+      <c r="L9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="L19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="L20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="L22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
       <c r="M23" t="s">
         <v>60</v>
       </c>
@@ -3145,50 +4078,50 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="O25" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:H25"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C11:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="U5:V6"/>
     <mergeCell ref="U8:V9"/>
-    <mergeCell ref="B15:H25"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C5:D6" location="タイトル!A1" display="タイトル"/>
-    <hyperlink ref="C8:D9" location="Option!A1" display="option"/>
-    <hyperlink ref="O5:P6" location="キャラクリエイト!A1" display="キャラクリエイト!A1"/>
-    <hyperlink ref="R5:S6" location="探索!A1" display="探索"/>
-    <hyperlink ref="U5:V6" location="戦闘!A1" display="[全員]の戦闘"/>
-    <hyperlink ref="U8:V9" location="報酬!A1" display="報酬"/>
-    <hyperlink ref="K9:L10" location="Option!A1" display="option"/>
+    <hyperlink ref="C5:D6" location="タイトル!A1" display="タイトル" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C8:D9" location="Option!A1" display="option" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O5:P6" location="キャラクリエイト!A1" display="キャラクリエイト!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R5:S6" location="探索!A1" display="探索" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="U5:V6" location="戦闘!A1" display="[全員]の戦闘" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="U8:V9" location="報酬!A1" display="報酬" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K9:L10" location="Option!A1" display="option" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3197,7 +4130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,13 +4155,13 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="25"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="P5" s="36"/>
@@ -3238,19 +4171,19 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P6" s="26"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="27"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="40"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3262,18 +4195,18 @@
     </row>
     <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="33"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T18" s="32" t="s">
+      <c r="T18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="33"/>
+      <c r="U18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3285,7 +4218,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="Q14:S14" location="Option!A1" display="Option"/>
+    <hyperlink ref="Q14:S14" location="Option!A1" display="Option" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3293,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3309,10 +4242,10 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="12"/>
       <c r="P2" t="s">
         <v>12</v>
       </c>
@@ -3321,26 +4254,26 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="S3" s="24" t="s">
+      <c r="G3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="25"/>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="26"/>
+      <c r="S4" s="33"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="27"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -3369,11 +4302,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T8" s="40"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T9" s="1" t="s">
@@ -3381,11 +4314,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="40"/>
-      <c r="U10" s="33"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T11" s="1" t="s">
@@ -3393,11 +4326,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="40"/>
-      <c r="U12" s="33"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T13" s="1" t="s">
@@ -3405,11 +4338,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="40"/>
-      <c r="U14" s="33"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T15" s="1" t="s">
@@ -3417,20 +4350,20 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="33"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="22:23" x14ac:dyDescent="0.4">
-      <c r="W17" s="45" t="s">
+      <c r="W17" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="22:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="V18" s="2"/>
-      <c r="W18" s="46"/>
+      <c r="W18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3451,7 +4384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,9 +4416,9 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="35"/>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="49"/>
@@ -3493,9 +4426,9 @@
       <c r="E3" s="53"/>
       <c r="F3" s="54"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="26"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3542,9 +4475,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O7" s="32"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="51" t="s">
@@ -3564,9 +4497,9 @@
       <c r="C9" s="54"/>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="40"/>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P10" s="1" t="s">
@@ -3577,9 +4510,9 @@
       <c r="D11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P12" s="1"/>
@@ -3598,27 +4531,27 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="18:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="R17" s="2"/>
-      <c r="S17" s="46"/>
+      <c r="S17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="E8:F9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3627,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3646,11 +4579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3674,6 +4607,14 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3683,7 +4624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Nechronica/ネクロニカ.xlsx
+++ b/Nechronica/ネクロニカ.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル" sheetId="2" r:id="rId2"/>
-    <sheet name="Option" sheetId="3" r:id="rId3"/>
-    <sheet name="キャラクリエイト" sheetId="4" r:id="rId4"/>
-    <sheet name="探索" sheetId="5" r:id="rId5"/>
-    <sheet name="戦闘" sheetId="6" r:id="rId6"/>
-    <sheet name="報酬" sheetId="7" r:id="rId7"/>
+    <sheet name="story" sheetId="8" r:id="rId3"/>
+    <sheet name="Option" sheetId="3" r:id="rId4"/>
+    <sheet name="キャラクリエイト" sheetId="4" r:id="rId5"/>
+    <sheet name="探索" sheetId="5" r:id="rId6"/>
+    <sheet name="戦闘" sheetId="6" r:id="rId7"/>
+    <sheet name="報酬" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>ゲームの流れ</t>
     <rPh sb="4" eb="5">
@@ -501,6 +502,169 @@
     <t>git設定しとくわ</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都市</t>
+    <rPh sb="0" eb="2">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都市地下</t>
+    <rPh sb="0" eb="2">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3章</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨てられたドール</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に暮らしてた町</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デパ地下研究所</t>
+    <rPh sb="2" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木（迷路）、廃墟、湖、井戸、洞窟、斧（チェーンソー）、異常植物、丘、枯れ葉、地脈、鉱山、酸性雨、炭鉱夫（遺体）、異常虫、キノコ</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイキョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミズウミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>チミャク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウザン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>サンセイウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>タンコウフ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イタイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使えるassetで</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -862,6 +1026,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,27 +1098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,14 +1125,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2944,10 +3108,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
@@ -2964,44 +3128,44 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="G5" s="24" t="s">
+      <c r="D5" s="28"/>
+      <c r="G5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="K5" s="24" t="s">
+      <c r="H5" s="32"/>
+      <c r="K5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="32"/>
+      <c r="O5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="R5" s="28" t="s">
+      <c r="P5" s="14"/>
+      <c r="R5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="U5" s="28" t="s">
+      <c r="S5" s="14"/>
+      <c r="U5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="29"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U7">
@@ -3009,131 +3173,131 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="U8" s="28" t="s">
+      <c r="D8" s="14"/>
+      <c r="U8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="29"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="K9" s="28" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="K9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
+      <c r="L9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="L19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="L20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="L22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
       <c r="M23" t="s">
         <v>60</v>
       </c>
@@ -3145,40 +3309,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="O25" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:H25"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C11:D12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="U5:V6"/>
     <mergeCell ref="U8:V9"/>
-    <mergeCell ref="B15:H25"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3222,13 +3386,13 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="25"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="P5" s="36"/>
@@ -3238,19 +3402,19 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P6" s="26"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="27"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="40"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3262,18 +3426,18 @@
     </row>
     <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="33"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="20:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T18" s="32" t="s">
+      <c r="T18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="33"/>
+      <c r="U18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3294,6 +3458,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3309,10 +3557,10 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="12"/>
       <c r="P2" t="s">
         <v>12</v>
       </c>
@@ -3321,26 +3569,26 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="S3" s="24" t="s">
+      <c r="G3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="25"/>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="26"/>
+      <c r="S4" s="33"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="27"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -3369,11 +3617,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T8" s="40"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T9" s="1" t="s">
@@ -3381,11 +3629,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="40"/>
-      <c r="U10" s="33"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T11" s="1" t="s">
@@ -3393,11 +3641,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="40"/>
-      <c r="U12" s="33"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T13" s="1" t="s">
@@ -3405,11 +3653,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="40"/>
-      <c r="U14" s="33"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="T15" s="1" t="s">
@@ -3417,20 +3665,20 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="33"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="22:23" x14ac:dyDescent="0.4">
-      <c r="W17" s="45" t="s">
+      <c r="W17" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="22:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="V18" s="2"/>
-      <c r="W18" s="46"/>
+      <c r="W18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3450,11 +3698,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3481,9 +3729,9 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="35"/>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="49"/>
@@ -3491,9 +3739,9 @@
       <c r="E3" s="53"/>
       <c r="F3" s="54"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="26"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3540,9 +3788,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O7" s="32"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="40"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="51" t="s">
@@ -3562,9 +3810,9 @@
       <c r="C9" s="54"/>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="40"/>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P10" s="1" t="s">
@@ -3575,9 +3823,9 @@
       <c r="D11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P12" s="1"/>
@@ -3596,27 +3844,27 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="18:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="R17" s="2"/>
-      <c r="S17" s="46"/>
+      <c r="S17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="E8:F9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,7 +3872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3643,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3680,7 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
